--- a/src/main/java/com/qa/testdata/Data.xlsx
+++ b/src/main/java/com/qa/testdata/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k-bhatt/eclipse-workspace1/JavaSelenium/src/main/java/com/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E0A49-FB56-0247-952A-7DFB590ECF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BE8365-5A26-E147-B2EA-768C943CA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{73C089CA-350C-434F-AE38-AEE6575881B6}"/>
+    <workbookView xWindow="4940" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{73C089CA-350C-434F-AE38-AEE6575881B6}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,70 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>errorMsg</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Epic sadface: Username is required</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>Epic sadface: Password is required</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>Epic sadface: Sorry, this user has been locked out.</t>
-  </si>
-  <si>
-    <t>Tes123</t>
-  </si>
-  <si>
-    <t>Epic sadface: Username and password do not match any user in this service</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>IncorrectLoginTest</t>
-  </si>
-  <si>
-    <t>CorrectLoginTest</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>numberOfRowsTest</t>
+  </si>
+  <si>
+    <t>josh.keti@gmail.com</t>
+  </si>
+  <si>
+    <t>p6JULYe7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,15 +105,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,23 +430,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C02850-5E65-A542-843A-FF8FFC549091}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -468,137 +454,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{02946E1C-A41F-E844-96E8-66CBD29C4FF6}"/>
+    <hyperlink ref="C3" r:id="rId2" display="1gPTemiY3$$A@F47" xr:uid="{1B9858A5-39E3-B245-8B95-4779A86A2AEE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>